--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntf3-Ntrk3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntf3-Ntrk3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.477828666666666</v>
+        <v>5.305917</v>
       </c>
       <c r="H2">
-        <v>13.433486</v>
+        <v>15.917751</v>
       </c>
       <c r="I2">
-        <v>0.4652827882180238</v>
+        <v>0.4336744870332215</v>
       </c>
       <c r="J2">
-        <v>0.4652827882180237</v>
+        <v>0.4336744870332215</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1511493333333333</v>
+        <v>0.004481</v>
       </c>
       <c r="N2">
-        <v>0.453448</v>
+        <v>0.013443</v>
       </c>
       <c r="O2">
-        <v>0.7495144539818079</v>
+        <v>0.01111165297720057</v>
       </c>
       <c r="P2">
-        <v>0.7495144539818078</v>
+        <v>0.01111165297720057</v>
       </c>
       <c r="Q2">
-        <v>0.6768208177475555</v>
+        <v>0.023775814077</v>
       </c>
       <c r="R2">
-        <v>6.091387359727999</v>
+        <v>0.213982326693</v>
       </c>
       <c r="S2">
-        <v>0.3487361749583653</v>
+        <v>0.004818840404978626</v>
       </c>
       <c r="T2">
-        <v>0.3487361749583652</v>
+        <v>0.004818840404978627</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,25 +587,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.477828666666666</v>
+        <v>5.305917</v>
       </c>
       <c r="H3">
-        <v>13.433486</v>
+        <v>15.917751</v>
       </c>
       <c r="I3">
-        <v>0.4652827882180238</v>
+        <v>0.4336744870332215</v>
       </c>
       <c r="J3">
-        <v>0.4652827882180237</v>
+        <v>0.4336744870332215</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.05051366666666666</v>
+        <v>0.1511493333333333</v>
       </c>
       <c r="N3">
-        <v>0.151541</v>
+        <v>0.453448</v>
       </c>
       <c r="O3">
-        <v>0.2504855460181921</v>
+        <v>0.3748089577628241</v>
       </c>
       <c r="P3">
-        <v>0.2504855460181921</v>
+        <v>0.3748089577628241</v>
       </c>
       <c r="Q3">
-        <v>0.2261915446584444</v>
+        <v>0.801985817272</v>
       </c>
       <c r="R3">
-        <v>2.035723901926</v>
+        <v>7.217872355447999</v>
       </c>
       <c r="S3">
-        <v>0.1165466132596585</v>
+        <v>0.1625450824932491</v>
       </c>
       <c r="T3">
-        <v>0.1165466132596585</v>
+        <v>0.1625450824932491</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.528563666666667</v>
+        <v>5.305917</v>
       </c>
       <c r="H4">
-        <v>7.585691000000001</v>
+        <v>15.917751</v>
       </c>
       <c r="I4">
-        <v>0.2627383137214249</v>
+        <v>0.4336744870332215</v>
       </c>
       <c r="J4">
-        <v>0.2627383137214249</v>
+        <v>0.4336744870332215</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1511493333333333</v>
+        <v>0.24764</v>
       </c>
       <c r="N4">
-        <v>0.453448</v>
+        <v>0.74292</v>
       </c>
       <c r="O4">
-        <v>0.7495144539818079</v>
+        <v>0.6140793892599753</v>
       </c>
       <c r="P4">
-        <v>0.7495144539818078</v>
+        <v>0.6140793892599754</v>
       </c>
       <c r="Q4">
-        <v>0.3821907125075556</v>
+        <v>1.31395728588</v>
       </c>
       <c r="R4">
-        <v>3.439716412568</v>
+        <v>11.82561557292</v>
       </c>
       <c r="S4">
-        <v>0.1969261637490148</v>
+        <v>0.2663105641349938</v>
       </c>
       <c r="T4">
-        <v>0.1969261637490147</v>
+        <v>0.2663105641349938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>7.585691000000001</v>
       </c>
       <c r="I5">
-        <v>0.2627383137214249</v>
+        <v>0.2066699405724794</v>
       </c>
       <c r="J5">
-        <v>0.2627383137214249</v>
+        <v>0.2066699405724794</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05051366666666666</v>
+        <v>0.004481</v>
       </c>
       <c r="N5">
-        <v>0.151541</v>
+        <v>0.013443</v>
       </c>
       <c r="O5">
-        <v>0.2504855460181921</v>
+        <v>0.01111165297720057</v>
       </c>
       <c r="P5">
-        <v>0.2504855460181921</v>
+        <v>0.01111165297720057</v>
       </c>
       <c r="Q5">
-        <v>0.1277270222034444</v>
+        <v>0.01133049379033333</v>
       </c>
       <c r="R5">
-        <v>1.149543199831</v>
+        <v>0.101974444113</v>
       </c>
       <c r="S5">
-        <v>0.06581214997241017</v>
+        <v>0.002296444660460056</v>
       </c>
       <c r="T5">
-        <v>0.06581214997241015</v>
+        <v>0.002296444660460056</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.617494</v>
+        <v>2.528563666666667</v>
       </c>
       <c r="H6">
-        <v>7.852482</v>
+        <v>7.585691000000001</v>
       </c>
       <c r="I6">
-        <v>0.2719788980605514</v>
+        <v>0.2066699405724794</v>
       </c>
       <c r="J6">
-        <v>0.2719788980605514</v>
+        <v>0.2066699405724794</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>0.453448</v>
       </c>
       <c r="O6">
-        <v>0.7495144539818079</v>
+        <v>0.3748089577628241</v>
       </c>
       <c r="P6">
-        <v>0.7495144539818078</v>
+        <v>0.3748089577628241</v>
       </c>
       <c r="Q6">
-        <v>0.395632473104</v>
+        <v>0.3821907125075556</v>
       </c>
       <c r="R6">
-        <v>3.560692257936</v>
+        <v>3.439716412568</v>
       </c>
       <c r="S6">
-        <v>0.203852115274428</v>
+        <v>0.07746174502687581</v>
       </c>
       <c r="T6">
-        <v>0.2038521152744279</v>
+        <v>0.07746174502687581</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.617494</v>
+        <v>2.528563666666667</v>
       </c>
       <c r="H7">
-        <v>7.852482</v>
+        <v>7.585691000000001</v>
       </c>
       <c r="I7">
-        <v>0.2719788980605514</v>
+        <v>0.2066699405724794</v>
       </c>
       <c r="J7">
-        <v>0.2719788980605514</v>
+        <v>0.2066699405724794</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.05051366666666666</v>
+        <v>0.24764</v>
       </c>
       <c r="N7">
-        <v>0.151541</v>
+        <v>0.74292</v>
       </c>
       <c r="O7">
-        <v>0.2504855460181921</v>
+        <v>0.6140793892599753</v>
       </c>
       <c r="P7">
-        <v>0.2504855460181921</v>
+        <v>0.6140793892599754</v>
       </c>
       <c r="Q7">
-        <v>0.132219219418</v>
+        <v>0.6261735064133334</v>
       </c>
       <c r="R7">
-        <v>1.189972974762</v>
+        <v>5.635561557720001</v>
       </c>
       <c r="S7">
-        <v>0.06812678278612341</v>
+        <v>0.1269117508851436</v>
       </c>
       <c r="T7">
-        <v>0.06812678278612341</v>
+        <v>0.1269117508851436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.400310999999999</v>
+      </c>
+      <c r="H8">
+        <v>13.200933</v>
+      </c>
+      <c r="I8">
+        <v>0.359655572394299</v>
+      </c>
+      <c r="J8">
+        <v>0.359655572394299</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.004481</v>
+      </c>
+      <c r="N8">
+        <v>0.013443</v>
+      </c>
+      <c r="O8">
+        <v>0.01111165297720057</v>
+      </c>
+      <c r="P8">
+        <v>0.01111165297720057</v>
+      </c>
+      <c r="Q8">
+        <v>0.019717793591</v>
+      </c>
+      <c r="R8">
+        <v>0.177460142319</v>
+      </c>
+      <c r="S8">
+        <v>0.003996367911761888</v>
+      </c>
+      <c r="T8">
+        <v>0.003996367911761889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.400310999999999</v>
+      </c>
+      <c r="H9">
+        <v>13.200933</v>
+      </c>
+      <c r="I9">
+        <v>0.359655572394299</v>
+      </c>
+      <c r="J9">
+        <v>0.359655572394299</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.1511493333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.453448</v>
+      </c>
+      <c r="O9">
+        <v>0.3748089577628241</v>
+      </c>
+      <c r="P9">
+        <v>0.3748089577628241</v>
+      </c>
+      <c r="Q9">
+        <v>0.6651040741093333</v>
+      </c>
+      <c r="R9">
+        <v>5.985936666983999</v>
+      </c>
+      <c r="S9">
+        <v>0.1348021302426991</v>
+      </c>
+      <c r="T9">
+        <v>0.1348021302426991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.400310999999999</v>
+      </c>
+      <c r="H10">
+        <v>13.200933</v>
+      </c>
+      <c r="I10">
+        <v>0.359655572394299</v>
+      </c>
+      <c r="J10">
+        <v>0.359655572394299</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.24764</v>
+      </c>
+      <c r="N10">
+        <v>0.74292</v>
+      </c>
+      <c r="O10">
+        <v>0.6140793892599753</v>
+      </c>
+      <c r="P10">
+        <v>0.6140793892599754</v>
+      </c>
+      <c r="Q10">
+        <v>1.08969301604</v>
+      </c>
+      <c r="R10">
+        <v>9.80723714436</v>
+      </c>
+      <c r="S10">
+        <v>0.220857074239838</v>
+      </c>
+      <c r="T10">
+        <v>0.220857074239838</v>
       </c>
     </row>
   </sheetData>
